--- a/GRis/Content/ExcelTemplates/ServerTimeEntriesMonthlyReportTemplate.xlsx
+++ b/GRis/Content/ExcelTemplates/ServerTimeEntriesMonthlyReportTemplate.xlsx
@@ -408,9 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>

--- a/GRis/Content/ExcelTemplates/ServerTimeEntriesMonthlyReportTemplate.xlsx
+++ b/GRis/Content/ExcelTemplates/ServerTimeEntriesMonthlyReportTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Server ID</t>
   </si>
@@ -35,9 +35,6 @@
   <si>
     <t>Current Pay Source</t>
   </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
 </sst>
 </file>
 
@@ -50,16 +47,19 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,22 +78,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -406,48 +415,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="23" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
